--- a/data/Dataset.xlsx
+++ b/data/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woojinheo/Desktop/github/travel_optimizer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1104672-99A5-8E41-B417-18AD91893E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC2849C-3B8A-B847-8B4F-43405B4BCACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="680" windowWidth="24480" windowHeight="16480" xr2:uid="{4793D832-98B4-9B4B-B319-BFD6E3C3A9EB}"/>
+    <workbookView xWindow="4380" yWindow="680" windowWidth="24420" windowHeight="16480" xr2:uid="{4793D832-98B4-9B4B-B319-BFD6E3C3A9EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tours+Attractions+Restaurants" sheetId="1" r:id="rId1"/>
@@ -2162,10 +2162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA54BE0-51CB-054A-AE26-20B17AD1637A}">
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7805,8 +7805,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
+    <row r="143" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O139" xr:uid="{8AA54BE0-51CB-054A-AE26-20B17AD1637A}"/>
@@ -17912,6 +17912,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED4B758ACC871419CF65DE46A3A38BC" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="075622c798a86ab908646ce84f3f30ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c042650c-9777-4afc-aead-5c5d142824aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d8639a9cac460bd248d55068b576420" ns2:_="">
     <xsd:import namespace="c042650c-9777-4afc-aead-5c5d142824aa"/>
@@ -18055,15 +18064,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -18071,6 +18071,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC9CFA72-95BD-4926-9E80-F115E5439C24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D97004F-0DE4-438B-9FA6-DD1D3E09DAD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18088,14 +18096,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC9CFA72-95BD-4926-9E80-F115E5439C24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BD86A2-1942-4324-BA0A-BE49ACF60F0B}">
   <ds:schemaRefs>
